--- a/biology/Biochimie/Ergocalciférol/Ergocalciférol.xlsx
+++ b/biology/Biochimie/Ergocalciférol/Ergocalciférol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ergocalcif%C3%A9rol</t>
+          <t>Ergocalciférol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ergocalciférol est une forme de la vitamine D, appelée également vitamine D2. L'ergocalciférol est structurellement un sécostéroïde. 
-Il a été synthétisé en 1922 pour la première fois par le chimiste allemand Adolf Windaus, avec la contribution notable de l'Américain Alfred Hess, par photolyse de l'ergostérol, et sa structure a été identifiée dans le milieu des années 1930 par Adolf Windaus et al.[6].
+Il a été synthétisé en 1922 pour la première fois par le chimiste allemand Adolf Windaus, avec la contribution notable de l'Américain Alfred Hess, par photolyse de l'ergostérol, et sa structure a été identifiée dans le milieu des années 1930 par Adolf Windaus et al..
 A l'instar du cholécalciférol (vitamine D3), les sources alimentaires sont animales ainsi que certains lichens ; l'ergocalciférol se trouve dans des sources végétales et dans certains champignons. Il est donc consommé par les végétariens, à travers leur alimentation ou sous forme de suppléments.
-Lorsqu'elle est absorbée par l'organisme, la vitamine D2 est, comme la vitamine D3, convertie en calcitriol[7]. 
-L'ergocalciférol fait partie de la liste modèle de l'OMS des médicaments essentiels (liste mise à jour en avril 2013)[8].
-L'expression génique associée à l'activité de l'interféron de type I et de type II, essentielle à la réponse innée aux infections bactériennes et virales, différerait après une supplémentation en vitamine D2 ou en vitamine D3, seule la vitamine D3 ayant un effet stimulant[9].
+Lorsqu'elle est absorbée par l'organisme, la vitamine D2 est, comme la vitamine D3, convertie en calcitriol. 
+L'ergocalciférol fait partie de la liste modèle de l'OMS des médicaments essentiels (liste mise à jour en avril 2013).
+L'expression génique associée à l'activité de l'interféron de type I et de type II, essentielle à la réponse innée aux infections bactériennes et virales, différerait après une supplémentation en vitamine D2 ou en vitamine D3, seule la vitamine D3 ayant un effet stimulant.
 </t>
         </is>
       </c>
